--- a/ai/assets/textbook/chat_content_2.xlsx
+++ b/ai/assets/textbook/chat_content_2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\AIChatFilter\service\ai-chatfilter-service\ai\assets\textbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6E6C41A-9D5D-48F8-9780-FEC251B62637}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BE927DD-12F4-41D6-AB5A-D6DE832FA264}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22470" yWindow="1605" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3375" yWindow="2865" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -527,7 +527,7 @@
   <dimension ref="A1:B55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53"/>
+      <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>

--- a/ai/assets/textbook/chat_content_2.xlsx
+++ b/ai/assets/textbook/chat_content_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\AIChatFilter\service\ai-chatfilter-service\ai\assets\textbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BE927DD-12F4-41D6-AB5A-D6DE832FA264}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3BC59FC-207C-4D21-8867-2CB19C8FE588}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3375" yWindow="2865" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3030" yWindow="2520" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -526,8 +526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -548,272 +548,431 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>53</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/ai/assets/textbook/chat_content_2.xlsx
+++ b/ai/assets/textbook/chat_content_2.xlsx
@@ -8,27 +8,36 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\AIChatFilter\service\ai-chatfilter-service\ai\assets\textbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3BC59FC-207C-4D21-8867-2CB19C8FE588}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A3DAA04-EEC4-426D-B666-D7972C29B04C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3030" yWindow="2520" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11355" yWindow="2220" windowWidth="17145" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$A$1:$B$1</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcOnSave="0"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="369">
   <si>
     <t>回家的车费都没有</t>
   </si>
@@ -195,13 +204,980 @@
   </si>
   <si>
     <t>很快乐 Wet Cake 徽薪哦兄弟</t>
+  </si>
+  <si>
+    <t>这个对</t>
+  </si>
+  <si>
+    <t>{viplv0}金鹰</t>
+  </si>
+  <si>
+    <t>{viplv0}红的</t>
+  </si>
+  <si>
+    <t>{viplv2}速度王</t>
+  </si>
+  <si>
+    <t>{viplv0}淡定，各位，输起走</t>
+  </si>
+  <si>
+    <t>{viplv3}自己输就算了</t>
+  </si>
+  <si>
+    <t>我知道有这个片子</t>
+  </si>
+  <si>
+    <t>我昨天打了50000</t>
+  </si>
+  <si>
+    <t>哦哦</t>
+  </si>
+  <si>
+    <t>走了</t>
+  </si>
+  <si>
+    <t>数学里叫试错率</t>
+  </si>
+  <si>
+    <t>{viplv0}问客服客服总是敷衍我，都20小时了</t>
+  </si>
+  <si>
+    <t>因为我那个行绑定的银行卡不能转账了</t>
+  </si>
+  <si>
+    <t>{viplv3}看你们发财</t>
+  </si>
+  <si>
+    <t>&lt;msg&gt;怎么样我分析的准不准&lt;lv&gt;4&lt;/lv&gt;&lt;/msg&gt;</t>
+  </si>
+  <si>
+    <t>看的眼花缭乱</t>
+  </si>
+  <si>
+    <t>{viplv5}不能不管人家</t>
+  </si>
+  <si>
+    <t>&lt;msg&gt;来这边的都是男的吗&lt;lv&gt;4&lt;/lv&gt;&lt;/msg&gt;</t>
+  </si>
+  <si>
+    <t>等会我过去我就说 你媳妇来看你了  你个负心汉失踪那么久</t>
+  </si>
+  <si>
+    <t>泡妞这个事情 看本事</t>
+  </si>
+  <si>
+    <t>有本事要女的泡你</t>
+  </si>
+  <si>
+    <t>尤其像宝儿这种年轻单身圣女</t>
+  </si>
+  <si>
+    <t>&lt;msg&gt;老看你的奶注意力不集中&lt;lv&gt;3&lt;/lv&gt;&lt;/msg&gt;</t>
+  </si>
+  <si>
+    <t>笑的我心里好甜</t>
+  </si>
+  <si>
+    <t>火锅桌子上的钱就是我下海的全部</t>
+  </si>
+  <si>
+    <t>我在海边长大的，你说呢</t>
+  </si>
+  <si>
+    <t>台湾又穷</t>
+  </si>
+  <si>
+    <t>是不是装再收</t>
+  </si>
+  <si>
+    <t>雪儿 庄还收</t>
+  </si>
+  <si>
+    <t>星星看你5连收牛啊</t>
+  </si>
+  <si>
+    <t>心妍你用的什么技巧啊{55}{55}能1直赢，是有内幕么</t>
+  </si>
+  <si>
+    <t>庄4万</t>
+  </si>
+  <si>
+    <t>庄收了</t>
+  </si>
+  <si>
+    <t>77伱真的太准了</t>
+  </si>
+  <si>
+    <t>大神厉害收米稳稳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漂亮收米 完美11连中</t>
+  </si>
+  <si>
+    <t>主播小姐姐你的牛奶是自己自产的吗</t>
+  </si>
+  <si>
+    <t>小宝啊  给我个方式 我发包给你</t>
+  </si>
+  <si>
+    <t>心妍大神路子看的稳啊</t>
+  </si>
+  <si>
+    <t>稳是点杀神捕</t>
+  </si>
+  <si>
+    <t>漂亮闲收米稳稳15连中</t>
+  </si>
+  <si>
+    <t>452大神厉害跟伱稳稳收米</t>
+  </si>
+  <si>
+    <t>月亮大神你就是路子啊 不，路子都不如你稳</t>
+  </si>
+  <si>
+    <t>月亮就是什么大神和你连収了真舒服</t>
+  </si>
+  <si>
+    <t>心妍大神还在么与伱联收不断通过我啊</t>
+  </si>
+  <si>
+    <t>月亮你是有啥内幕吧？和你连収的没谁了啊</t>
+  </si>
+  <si>
+    <t>月亮好厉害能早点遇到你就好了</t>
+  </si>
+  <si>
+    <t>我相心在座的兄弟，都是有梦想的</t>
+  </si>
+  <si>
+    <t>怎么没有人说话呢？</t>
+  </si>
+  <si>
+    <t>你那么准 是不是有内模消息啊</t>
+  </si>
+  <si>
+    <t>若秋这么吻的路子你们看到了吧，已经来98个了，再来2个马上开车赢钱</t>
+  </si>
+  <si>
+    <t>若秋 和你积蓄连收稳稳的</t>
+  </si>
+  <si>
+    <t>关公号{63}必笑乐{63}</t>
+  </si>
+  <si>
+    <t>是啊禁言很厉害严重</t>
+  </si>
+  <si>
+    <t>就问和我打的哪个没有收益满满？</t>
+  </si>
+  <si>
+    <t>关公号{3}必笑乐{3}</t>
+  </si>
+  <si>
+    <t>关公号</t>
+  </si>
+  <si>
+    <t>你的路子看的太好了</t>
+  </si>
+  <si>
+    <t>求你了，闲</t>
+  </si>
+  <si>
+    <t>{viplv5}{dt1-10-5-27}恐怕投入大于收益</t>
+  </si>
+  <si>
+    <t>没错</t>
+  </si>
+  <si>
+    <t>再次嗨皮-</t>
+  </si>
+  <si>
+    <t>她的眼睛在暗示什么</t>
+  </si>
+  <si>
+    <t>{viplv5}{dt1-1-7-28}发财是必然输钱只是偶然</t>
+  </si>
+  <si>
+    <t>别开心的太早</t>
+  </si>
+  <si>
+    <t>看不到哦</t>
+  </si>
+  <si>
+    <r>
+      <t>&lt;msg&gt;&lt;yplv&gt;1&lt;/yplv&gt;&lt;dt&gt;1-10-5-13&lt;/dt&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>刚进来这出的什么玩意</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;isAnchorPlatformMsg&gt;0&lt;/isAnchorPlatformMsg&gt;&lt;/msg&gt;</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>{viplv2}{dt1-2-10-29}猪养肥自然被杀的</t>
+  </si>
+  <si>
+    <t>不行啊，打不死</t>
+  </si>
+  <si>
+    <t>你们好</t>
+  </si>
+  <si>
+    <t>换人了，有点虚</t>
+  </si>
+  <si>
+    <t>倒霉啊</t>
+  </si>
+  <si>
+    <t>你这是纯瞎蒙</t>
+  </si>
+  <si>
+    <t>你们输吗</t>
+  </si>
+  <si>
+    <t>{viplv5}{dt1-10-9-27}看来是有钱的主</t>
+  </si>
+  <si>
+    <t>估计死了很多人了</t>
+  </si>
+  <si>
+    <t>就是日子好过了才来的</t>
+  </si>
+  <si>
+    <t>无底洞</t>
+  </si>
+  <si>
+    <t>杀人</t>
+  </si>
+  <si>
+    <t>对得起家人不</t>
+  </si>
+  <si>
+    <t>打不死了</t>
+  </si>
+  <si>
+    <t>有人吗</t>
+  </si>
+  <si>
+    <t>好</t>
+  </si>
+  <si>
+    <t>大哥别搞呀</t>
+  </si>
+  <si>
+    <t>{viplv4}{dt1-0-5-17}下那么多</t>
+  </si>
+  <si>
+    <t>恶心不</t>
+  </si>
+  <si>
+    <t>抢不过人机</t>
+  </si>
+  <si>
+    <t>你发牌，我都赢</t>
+  </si>
+  <si>
+    <t>{viplv5}{dt1-10-5-26}我打瞌睡了</t>
+  </si>
+  <si>
+    <t>卧龙</t>
+  </si>
+  <si>
+    <t>干啥呢 老妹</t>
+  </si>
+  <si>
+    <t>赢的人都睡了</t>
+  </si>
+  <si>
+    <t>充值了耐不住</t>
+  </si>
+  <si>
+    <t>输完以后老老实实睡觉</t>
+  </si>
+  <si>
+    <t>笑容最灿烂的荷官来了</t>
+  </si>
+  <si>
+    <t>对子对子必须开对子，不开走了</t>
+  </si>
+  <si>
+    <t>不要吹啦</t>
+  </si>
+  <si>
+    <t>别害人好吗</t>
+  </si>
+  <si>
+    <t>{viplv5}{prm:1}{dt1-10-5-23}又中了狮子王</t>
+  </si>
+  <si>
+    <t>这棒子 害我输</t>
+  </si>
+  <si>
+    <t>{viplv4}{dt1-10-5-24}电视剧都不敢这么演</t>
+  </si>
+  <si>
+    <t>{viplv5}{dt1-2-5-28}老板下狮子</t>
+  </si>
+  <si>
+    <t>杀戮开始</t>
+  </si>
+  <si>
+    <t>嗯嗯</t>
+  </si>
+  <si>
+    <t>嗯</t>
+  </si>
+  <si>
+    <t>嗯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>懒得 理你们</t>
+  </si>
+  <si>
+    <t>没错2</t>
+  </si>
+  <si>
+    <t>吃饭</t>
+  </si>
+  <si>
+    <t>搞我心态 反我 呵呵 反死你</t>
+  </si>
+  <si>
+    <t>哎</t>
+  </si>
+  <si>
+    <t>唉</t>
+  </si>
+  <si>
+    <t>快了</t>
+  </si>
+  <si>
+    <t>是红桃就好了</t>
+  </si>
+  <si>
+    <t>都是人才</t>
+  </si>
+  <si>
+    <t>我输了23万</t>
+  </si>
+  <si>
+    <t>{viplv2}{dt1-11-5-29}来</t>
+  </si>
+  <si>
+    <t>不知道</t>
+  </si>
+  <si>
+    <t>和</t>
+  </si>
+  <si>
+    <t>{viplv2}{dt1-10-5-27}哎</t>
+  </si>
+  <si>
+    <t>{viplv3}{dt1-10-5-28}大家都懂</t>
+  </si>
+  <si>
+    <t>{viplv5}{dt1-1-7-27}总指挥</t>
+  </si>
+  <si>
+    <t>{viplv4}{dt1-10-5-23}哎</t>
+  </si>
+  <si>
+    <t>{viplv5}{dt1-2-5-27}哪位好心人撒点钱哪</t>
+  </si>
+  <si>
+    <t>对</t>
+  </si>
+  <si>
+    <t>不知道啊</t>
+  </si>
+  <si>
+    <t>还没养大呢</t>
+  </si>
+  <si>
+    <t>轮杀机制</t>
+  </si>
+  <si>
+    <t>换人死</t>
+  </si>
+  <si>
+    <t>没敢打</t>
+  </si>
+  <si>
+    <t>没了</t>
+  </si>
+  <si>
+    <t>{viplv2}{dt1-2-5-24}吃的你们服气为止</t>
+  </si>
+  <si>
+    <t>{viplv5}{dt1-10-10-27}刚才板那么好没有时间玩</t>
+  </si>
+  <si>
+    <t>{viplv2}{dt1-2-5-24}我是戒了</t>
+  </si>
+  <si>
+    <t>&lt;msg&gt;&lt;yplv&gt;1&lt;/yplv&gt;&lt;dt&gt;1-2-7-28&lt;/dt&gt;阿弥陀佛拉我下吧&lt;isAnchorPlatformMsg&gt;0&lt;/isAnchorPlatformMsg&gt;&lt;/msg&gt;</t>
+  </si>
+  <si>
+    <t>阴谋家</t>
+  </si>
+  <si>
+    <t>&lt;msg&gt;&lt;yplv&gt;5&lt;/yplv&gt;&lt;prm&gt;1&lt;/prm&gt;&lt;dt&gt;1-0-5-27&lt;/dt&gt;噢&lt;isAnchorPlatformMsg&gt;0&lt;/isAnchorPlatformMsg&gt;&lt;/msg&gt;</t>
+  </si>
+  <si>
+    <t>说啊</t>
+  </si>
+  <si>
+    <t>搞点钱去找个摸摸</t>
+  </si>
+  <si>
+    <t>睡觉会儿</t>
+  </si>
+  <si>
+    <t>申请着多少</t>
+  </si>
+  <si>
+    <t>对啊</t>
+  </si>
+  <si>
+    <t>空转盘又啥意思</t>
+  </si>
+  <si>
+    <t>笑得那么好看</t>
+  </si>
+  <si>
+    <t>{viplv5}{dt1-10-6-17}幸运小白兔狠</t>
+  </si>
+  <si>
+    <t>{viplv2}{dt1-10-5-24}吃饭吃饭</t>
+  </si>
+  <si>
+    <t>是的</t>
+  </si>
+  <si>
+    <t>{viplv3}{dt1-10-5-28}方块来</t>
+  </si>
+  <si>
+    <t>晕死</t>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>哦</t>
+  </si>
+  <si>
+    <t>&lt;msg&gt;&lt;yplv&gt;5&lt;/yplv&gt;&lt;dt&gt;1-10-5-11&lt;/dt&gt;刚才给个金鲨回本  没收    这几次都是这样&lt;isAnchorPlatformMsg&gt;0&lt;/isAnchorPlatformMsg&gt;&lt;/msg&gt;</t>
+  </si>
+  <si>
+    <t>放了我吧</t>
+  </si>
+  <si>
+    <t>来</t>
+  </si>
+  <si>
+    <t>看好我们安世家族</t>
+  </si>
+  <si>
+    <t>{viplv3}{dt1-2-5-21}{ye13}王</t>
+  </si>
+  <si>
+    <t>{viplv5}{dt1-10-5-27}来撞多好</t>
+  </si>
+  <si>
+    <t>王！</t>
+  </si>
+  <si>
+    <t>{viplv5}{dt1-10-5-19}啊</t>
+  </si>
+  <si>
+    <t>恩恩</t>
+  </si>
+  <si>
+    <t>{viplv2}{dt0-10-5-28}坚持到1点10分</t>
+  </si>
+  <si>
+    <t>起飞</t>
+  </si>
+  <si>
+    <t>输得脑仁疼</t>
+  </si>
+  <si>
+    <t>{viplv2}{dt1-10-5-21}不要祟拜姐，姐只是个传说</t>
+  </si>
+  <si>
+    <t>救了大家。哈哈</t>
+  </si>
+  <si>
+    <t>&lt;msg&gt;&lt;yplv&gt;5&lt;/yplv&gt;&lt;dt&gt;1-10-8-29&lt;/dt&gt;看不懂&lt;isAnchorPlatformMsg&gt;0&lt;/isAnchorPlatformMsg&gt;&lt;/msg&gt;</t>
+  </si>
+  <si>
+    <t>死</t>
+  </si>
+  <si>
+    <t>没人回答我</t>
+  </si>
+  <si>
+    <t>猜中有奖哈哈</t>
+  </si>
+  <si>
+    <t>哎全场杀猪路</t>
+  </si>
+  <si>
+    <t>{viplv2}{dt0-10-5-28}手</t>
+  </si>
+  <si>
+    <t>赢</t>
+  </si>
+  <si>
+    <t>{viplv3}{dt1-2-5-24}礼拜别太发梦{ye13}</t>
+  </si>
+  <si>
+    <t>{viplv5}{dt1-1-8-28}死死的盯着杀</t>
+  </si>
+  <si>
+    <t>啊</t>
+  </si>
+  <si>
+    <t>玩了5个小时不输不赢，打回又输打回又输</t>
+  </si>
+  <si>
+    <t>恭喜你，Ag就需要你这样的人才</t>
+  </si>
+  <si>
+    <t>输了9个</t>
+  </si>
+  <si>
+    <t>合</t>
+  </si>
+  <si>
+    <t>我啊</t>
+  </si>
+  <si>
+    <t>{viplv3}{dt1-2-5-24}这是乞丐之路{ye13}</t>
+  </si>
+  <si>
+    <t>{viplv2}{dt1-0-7-29}笑了</t>
+  </si>
+  <si>
+    <t>看吧</t>
+  </si>
+  <si>
+    <t>服了，尤死</t>
+  </si>
+  <si>
+    <t>{viplv4}{dt1-10-7-24}哪位好心人撒点钱哪</t>
+  </si>
+  <si>
+    <t>就挨2把</t>
+  </si>
+  <si>
+    <t>哈喽</t>
+  </si>
+  <si>
+    <t>是的啊</t>
+  </si>
+  <si>
+    <t>看不到报的啦</t>
+  </si>
+  <si>
+    <t>嗯嗯呢</t>
+  </si>
+  <si>
+    <t>{viplv5}{dt1-11-20-29}我的</t>
+  </si>
+  <si>
+    <t>脸打的可疼</t>
+  </si>
+  <si>
+    <t>&lt;msg&gt;&lt;yplv&gt;1&lt;/yplv&gt;&lt;prm&gt;1&lt;/prm&gt;&lt;dt&gt;1-10-5-22&lt;/dt&gt;没本金，银行吹着还账&lt;isAnchorPlatformMsg&gt;0&lt;/isAnchorPlatformMsg&gt;&lt;/msg&gt;</t>
+  </si>
+  <si>
+    <t>你们说呢</t>
+  </si>
+  <si>
+    <t>{viplv3}{dt1-2-5-26}黄狮来了，打爆</t>
+  </si>
+  <si>
+    <t>还不发牌</t>
+  </si>
+  <si>
+    <t>早</t>
+  </si>
+  <si>
+    <t>还在观望</t>
+  </si>
+  <si>
+    <t>{viplv2}{dt1-10-5-27}我在你旁边看着你呢{ye14}</t>
+  </si>
+  <si>
+    <t>老哥全连中</t>
+  </si>
+  <si>
+    <t>{viplv2}{dt1-10-5-27}你们聊</t>
+  </si>
+  <si>
+    <t>超6</t>
+  </si>
+  <si>
+    <t>{viplv3}{dt1-10-9-27}看出来了确实定位</t>
+  </si>
+  <si>
+    <t>人家各凭本事</t>
+  </si>
+  <si>
+    <t>吧喔机会</t>
+  </si>
+  <si>
+    <t>拉完人头可以走了。。你啥都准</t>
+  </si>
+  <si>
+    <t>哦，我说呢</t>
+  </si>
+  <si>
+    <t>{viplv4}{dt1-2-11-29}是的</t>
+  </si>
+  <si>
+    <t>拜师学艺</t>
+  </si>
+  <si>
+    <t>来个威武霸气转盘</t>
+  </si>
+  <si>
+    <t>换台再来</t>
+  </si>
+  <si>
+    <t>只要来个威武霸气的转盘就无敌了</t>
+  </si>
+  <si>
+    <t>这把庄来来</t>
+  </si>
+  <si>
+    <t>丧心病狂哦</t>
+  </si>
+  <si>
+    <t>不想去天台</t>
+  </si>
+  <si>
+    <t>{viplv2}{dt1-10-5-23}哪位好心人撒点钱哪</t>
+  </si>
+  <si>
+    <t>碰碰运气</t>
+  </si>
+  <si>
+    <t>没劲</t>
+  </si>
+  <si>
+    <t>{viplv5}{dt1-10-5-25}心累</t>
+  </si>
+  <si>
+    <t>让我们这些旁注的情何以堪</t>
+  </si>
+  <si>
+    <t>得多少</t>
+  </si>
+  <si>
+    <t>走哪杀哪</t>
+  </si>
+  <si>
+    <t>韩红</t>
+  </si>
+  <si>
+    <t>砸上</t>
+  </si>
+  <si>
+    <t>兰死没有</t>
+  </si>
+  <si>
+    <t>87你好好报</t>
+  </si>
+  <si>
+    <t>{viplv2}{dt1-2-6-27}没人赢得</t>
+  </si>
+  <si>
+    <t>看我</t>
+  </si>
+  <si>
+    <t>{viplv2}{dt0-10-5-29}现在是平淡期</t>
+  </si>
+  <si>
+    <t>{viplv4}{dt1-0-8-30}天天在里面害人</t>
+  </si>
+  <si>
+    <t>很多去看直播了</t>
+  </si>
+  <si>
+    <t>这嘴巴打的</t>
+  </si>
+  <si>
+    <t>爱</t>
+  </si>
+  <si>
+    <t>哈看嘛不要观望不要犹豫，不放过来试试</t>
+  </si>
+  <si>
+    <t>停停打打的 做输 打了就不能停</t>
+  </si>
+  <si>
+    <t>直播间可以5</t>
+  </si>
+  <si>
+    <t>{viplv4}{dt1-11-5-28}229你蒙圈不</t>
+  </si>
+  <si>
+    <t>笑了</t>
+  </si>
+  <si>
+    <t>吃饭再来</t>
+  </si>
+  <si>
+    <t>猜对了</t>
+  </si>
+  <si>
+    <t>注意素质</t>
+  </si>
+  <si>
+    <t>宙斯我都看见好久了</t>
+  </si>
+  <si>
+    <t>上路好对称</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{viplv4}{prm:1}{dt0-10-16-29}看不懂 </t>
+  </si>
+  <si>
+    <t>没死</t>
+  </si>
+  <si>
+    <t>输了2万</t>
+  </si>
+  <si>
+    <t>公拆开打</t>
+  </si>
+  <si>
+    <t>看你们收米</t>
+  </si>
+  <si>
+    <t>土行孙来发牌了</t>
+  </si>
+  <si>
+    <t>捞</t>
+  </si>
+  <si>
+    <t>{viplv2}{dt1-2-5-23}越来越假</t>
+  </si>
+  <si>
+    <t>暂时只能死乌龟</t>
+  </si>
+  <si>
+    <t>进厂工价太低</t>
+  </si>
+  <si>
+    <t>啊不要盲目的跟路，路是打出来的，不是瞎蒙</t>
+  </si>
+  <si>
+    <t>哈哈，这个超牛啊</t>
+  </si>
+  <si>
+    <t>啊要懂得把握机会才会赢的，大口吃肉</t>
+  </si>
+  <si>
+    <t>连收没掉</t>
+  </si>
+  <si>
+    <t>装收进15万</t>
+  </si>
+  <si>
+    <t>走吧拜拜</t>
+  </si>
+  <si>
+    <t>撤</t>
+  </si>
+  <si>
+    <t>为了杀我30倍都出来</t>
+  </si>
+  <si>
+    <t>让国家出来好好管理下赌博，你就说被赌博害的，</t>
+  </si>
+  <si>
+    <t>这是国际的盘</t>
+  </si>
+  <si>
+    <t>暗无天日</t>
+  </si>
+  <si>
+    <t>嗯是的</t>
+  </si>
+  <si>
+    <t>赢钱的机会稍纵即逝</t>
+  </si>
+  <si>
+    <t>让家人们失望了</t>
+  </si>
+  <si>
+    <t>不堵啥事都没有，很好过日子</t>
+  </si>
+  <si>
+    <t>看好机会</t>
+  </si>
+  <si>
+    <t>走到哪里都有这个女人</t>
+  </si>
+  <si>
+    <t>{viplv4}{dt1-2-13-29}这个事孝感</t>
+  </si>
+  <si>
+    <t>各位兄弟们，我好激动</t>
+  </si>
+  <si>
+    <t>人家慢是为你们好，可以少输点</t>
+  </si>
+  <si>
+    <t>{viplv2}{dt1-10-5-21}不要祟拜哥，哥只是个传说</t>
+  </si>
+  <si>
+    <t>多向老人家学习学习</t>
+  </si>
+  <si>
+    <t>还有没有来的呢</t>
+  </si>
+  <si>
+    <t>我觉得1号很旺</t>
+  </si>
+  <si>
+    <t>看话不多言佰人讨论组即将华丽开演 有想法的别眨眼</t>
+  </si>
+  <si>
+    <t>不博你赢的机会 都没有</t>
+  </si>
+  <si>
+    <t>百家乐就是地狱之路！大家还是及时收手吧</t>
+  </si>
+  <si>
+    <t>千万别去玩龙虎</t>
+  </si>
+  <si>
+    <t>这就是命</t>
+  </si>
+  <si>
+    <t>放牛吃饭啊</t>
+  </si>
+  <si>
+    <t>活人去买时时彩吧真的绝对比这个</t>
+  </si>
+  <si>
+    <t>{viplv2}{dt1-10-5-25}学你们砸，输死我了</t>
+  </si>
+  <si>
+    <t>不要观望啦</t>
+  </si>
+  <si>
+    <t>{viplv5}{dt1-10-5-27}淘乐园估计要爆l</t>
+  </si>
+  <si>
+    <t>{viplv5}{dt1-1-5-29}红马更好</t>
+  </si>
+  <si>
+    <t>唉。刚说路好</t>
+  </si>
+  <si>
+    <t>{viplv2}{prm:1}{dt1-10-5-13}我为啥那么卡那么卡</t>
+  </si>
+  <si>
+    <t>让你充值</t>
+  </si>
+  <si>
+    <t>你们别吓唬老板，指望你们开饭呢</t>
+  </si>
+  <si>
+    <t>救救我</t>
+  </si>
+  <si>
+    <t>说得好</t>
+  </si>
+  <si>
+    <t>稳稳</t>
+  </si>
+  <si>
+    <t>嗯嗯是的</t>
+  </si>
+  <si>
+    <t>对的</t>
+  </si>
+  <si>
+    <t>给你机会</t>
+  </si>
+  <si>
+    <t>你们也经常看到吧</t>
+  </si>
+  <si>
+    <t>嗯嗯 很清楚</t>
+  </si>
+  <si>
+    <t>那你再别眨眼</t>
+  </si>
+  <si>
+    <t>两边对称，多好的路子</t>
+  </si>
+  <si>
+    <t>说提现成功，如果24小时不到账 在说</t>
+  </si>
+  <si>
+    <t>补牌主要看荷官心情</t>
+  </si>
+  <si>
+    <t>大哥复活</t>
+  </si>
+  <si>
+    <t>看来不想让闲死</t>
+  </si>
+  <si>
+    <t>这家伙动作慢</t>
+  </si>
+  <si>
+    <t>没什么经验</t>
+  </si>
+  <si>
+    <t>看不懂</t>
+  </si>
+  <si>
+    <t>上下路怎么结合</t>
+  </si>
+  <si>
+    <t>{viplv3}{dt1-2-5-25}干死老板娘</t>
+  </si>
+  <si>
+    <t>考题妈妈，上来都输，杀我14口了连</t>
+  </si>
+  <si>
+    <t>这个荷官发牌快</t>
+  </si>
+  <si>
+    <t>{viplv0}{dt1-11-11-30}钱都被9骗了</t>
+  </si>
+  <si>
+    <t>闲 百分百</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -216,6 +1192,34 @@
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="2">
@@ -240,10 +1244,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -259,6 +1267,19 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet 1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -524,10 +1545,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B55"/>
+  <dimension ref="A1:B434"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" topLeftCell="A418" workbookViewId="0">
+      <selection activeCell="A435" sqref="A435"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -975,6 +1996,3039 @@
         <v>1</v>
       </c>
     </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>80</v>
+      </c>
+      <c r="B82">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>90</v>
+      </c>
+      <c r="B92">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B95">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A112" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>111</v>
+      </c>
+      <c r="B114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>112</v>
+      </c>
+      <c r="B115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>113</v>
+      </c>
+      <c r="B116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A117" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A118" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A119" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A120" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A121" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A122" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A124" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A125" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A126" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A127" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <f>'[1]Sheet 1'!$F$5478</f>
+        <v>0</v>
+      </c>
+      <c r="B128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A129" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A130" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A131" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A132" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A133" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A134" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A135" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A136" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A137" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A138" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A139" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A140" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A141" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A142" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A143" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A144" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A145" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A146" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A147" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A148" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A149" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A150" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A151" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A152" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A153" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A154" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A155" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A156" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A157" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A158" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A159" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A160" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A161" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A162" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A163" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A164" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A166" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A167" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A168" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A169" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A170" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>164</v>
+      </c>
+      <c r="B171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A172" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A173" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>166</v>
+      </c>
+      <c r="B174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A175" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A176" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A177" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A178" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A179" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A180" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A181" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A182" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A183" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A184" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A185" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A186" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A187" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A188" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A189" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A190" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A191" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A192" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A193" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A194" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A195" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A196" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A197" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A198" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A199" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A200" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A201" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A202" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A203" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A204" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A205" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A206" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A207" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A208" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A209" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A210" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A211" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A212" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A213" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A214" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A215" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A216" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A217" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A218" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A219" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A220" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A221" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A222" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A223" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A224" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A225" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A226" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A227" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A228" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A229" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A230" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A231" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A232" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A233" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A234" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A235" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A236" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A237" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A238" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A239" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A240" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A241" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A242" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A243" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A244" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A245" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A246" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A247" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A248" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A249" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A250" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A251" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A252" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A253" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A254" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A255" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A256" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A257" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A258" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A259" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A260" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A261" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A262" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A263" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A264" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A265" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A266" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A267" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A268" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A269" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A270" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A271" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A272" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A273" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A274" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A275" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A276" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A277" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A278" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A279" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A280" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A281" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A282" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A283" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A284" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A285" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A286" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A287" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A288" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A289" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B289">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A290" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A291" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A292" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B292">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A293" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B293">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A294" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B294">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A295" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A296" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B296">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A297" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B297">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A298" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B298">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A299" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B299">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A300" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A301" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B301">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A302" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B302">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A303" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B303">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A304" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B304">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A305" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B305">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A306" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B306">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A307" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B307">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A308" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B308">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A309" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B309">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A310" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B310">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A311" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B311">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A312" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B312">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A313" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B313">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A314" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B314">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A315" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B315">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A316" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B316">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A317" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B317">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A318" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B318">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A319" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B319">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A320" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B320">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A321" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B321">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A322" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B322">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A323" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B323">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A324" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B324">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A325" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B325">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A326" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B326">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A327" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B327">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A328" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B328">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A329" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B329">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A330" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B330">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A331" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B331">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A332" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B332">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A333" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B333">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A334" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B334">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A335" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B335">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A336" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B336">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A337" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B337">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A338" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B338">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A339" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B339">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A340" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B340">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A341" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B341">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A342" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B342">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A343" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B343">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A344" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B344">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A345" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B345">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A346" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B346">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A347" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B347">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A348" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B348">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A349" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="B349">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A350" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B350">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A351" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B351">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A352" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B352">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A353" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B353">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A354" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B354">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A355" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B355">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A356" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B356">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A357" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B357">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A358" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B358">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A359" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B359">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A360" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B360">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A361" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B361">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A362" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B362">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A363" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B363">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A364" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B364">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A365" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B365">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A366" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B366">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A367" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B367">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A368" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B368">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A369" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B369">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A370" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="B370">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A371" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B371">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A372" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B372">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A373" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B373">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A374" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B374">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A375" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="B375">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A376" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B376">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A377" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B377">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A378" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="B378">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A379" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B379">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A380" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B380">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A381" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="B381">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A382" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="B382">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A383" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B383">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A384" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="B384">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A385" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B385">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A386" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="B386">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A387" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="B387">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A388" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B388">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A389" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B389">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A390" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="B390">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A391" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B391">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A392" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="B392">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A393" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B393">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A394" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="B394">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A395" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="B395">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A396" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="B396">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A397" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B397">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A398" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="B398">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A399" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B399">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A400" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="B400">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A401" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B401">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A402" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="B402">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A403" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="B403">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A404" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B404">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A405" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B405">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A406" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="B406">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A407" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="B407">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A408" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="B408">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A409" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="B409">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A410" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="B410">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A411" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B411">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A412" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B412">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A413" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B413">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A414" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="B414">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A415" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="B415">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A416" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="B416">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A417" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="B417">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A418" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="B418">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A419" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="B419">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A420" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="B420">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A421" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="B421">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A422" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="B422">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A423" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="B423">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A424" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B424">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A425" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="B425">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A426" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="B426">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A427" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="B427">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A428" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="B428">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A429" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B429">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A430" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B430">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A431" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B431">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A432" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B432">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A433" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B433">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A434" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B434">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:B1" xr:uid="{B22D9D08-154F-47A3-8315-1D2664EED49E}"/>
   <phoneticPr fontId="1" type="noConversion"/>
